--- a/Import Data/18x16.xlsx
+++ b/Import Data/18x16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02DFCEB-7709-4587-8FB4-6C77B3DCCCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AAC862-705A-4BEC-9CC6-CBDB2DB2FBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="600" windowWidth="28800" windowHeight="21000" xr2:uid="{DA58B3FB-5398-48AF-94F1-83C11342D4CC}"/>
+    <workbookView xWindow="22080" yWindow="4170" windowWidth="14130" windowHeight="14790" xr2:uid="{DA58B3FB-5398-48AF-94F1-83C11342D4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="46">
   <si>
     <t>18x16</t>
   </si>
@@ -196,12 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>1.02-NaN</t>
-  </si>
-  <si>
-    <t>1.06-NaN</t>
   </si>
 </sst>
 </file>
@@ -556,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8417C86E-D40A-4531-9592-1CC63B2254CE}">
   <dimension ref="A1:I491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9803,56 +9775,52 @@
       <c r="A413">
         <v>191.8</v>
       </c>
-      <c r="B413" t="s">
-        <v>46</v>
-      </c>
-      <c r="C413" t="e" cm="1">
-        <f t="array" ref="C413">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D413" t="e" cm="1">
-        <f t="array" ref="D413">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E413" t="e" cm="1">
-        <f t="array" ref="E413">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F413" t="e" cm="1">
-        <f t="array" ref="F413">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G413" t="e" cm="1">
-        <f t="array" ref="G413">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B413">
+        <v>1.02</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>199.4</v>
       </c>
-      <c r="B414" t="s">
-        <v>47</v>
-      </c>
-      <c r="C414" t="e" cm="1">
-        <f t="array" ref="C414">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D414" t="e" cm="1">
-        <f t="array" ref="D414">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E414" t="e" cm="1">
-        <f t="array" ref="E414">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F414" t="e" cm="1">
-        <f t="array" ref="F414">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G414" t="e" cm="1">
-        <f t="array" ref="G414">-NaN</f>
-        <v>#NAME?</v>
+      <c r="B414">
+        <v>1.06</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
